--- a/images/xol_toolhead/PTFE-Measurements.xlsx
+++ b/images/xol_toolhead/PTFE-Measurements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\print\Xol-Toolhead\images\xol_toolhead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B6497F-A619-41A5-9F7B-25014782EA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC16C92-9741-4349-9C20-F56D7ED4AD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{C79F5012-6656-42AA-A161-308DF9E169E8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Rapido</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>***All these measurements are based off CAD. It is always best to measure and cut to length based on your own setup</t>
+  </si>
+  <si>
+    <t>Dragon ST/HF</t>
+  </si>
+  <si>
+    <t>Dragon UHF/Mini</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,12 +415,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -438,6 +445,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -460,6 +468,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -482,6 +491,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -504,6 +514,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -634,19 +645,19 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{10B07088-2E3E-47AE-996E-6CBBCB92741D}" name="Hotend" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{7B6BB9E8-A121-427E-882C-12FB924916AD}" name="Sherpa-Mini *printed" dataDxfId="4">
-      <calculatedColumnFormula>B2+$B$12+$B$20+$B$27</calculatedColumnFormula>
+      <calculatedColumnFormula>B2+$B$12+$B$20+$B$27+8.5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{FB0BEA07-373C-40A8-A40B-3DDF1413DEF9}" name="DFA**" dataDxfId="3">
-      <calculatedColumnFormula>B2+$B$13+$B$21+$B$28</calculatedColumnFormula>
+      <calculatedColumnFormula>B2+$B$13+$B$21+$B$28+8.5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{6067A1B5-407A-4BF1-81BC-A5E1AF8BB50C}" name="VZ-Hextrudort-Low" dataDxfId="2">
-      <calculatedColumnFormula>B2+$B$14+$B$22+$B$29</calculatedColumnFormula>
+      <calculatedColumnFormula>B2+$B$14+$B$22+$B$29+8.5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{1935B0F2-89D7-4732-BDDF-EB84EBB32246}" name="LGX-Lite" dataDxfId="1">
-      <calculatedColumnFormula>B2+$B$15+$B$22+$B$29</calculatedColumnFormula>
+      <calculatedColumnFormula>B2+$B$15+$B$22+$B$29+8.5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{96AC7AC2-791E-4512-A648-3FAFD40C05BB}" name="Orbiter v2.0" dataDxfId="0">
-      <calculatedColumnFormula>B2+$B$16+$B$23+$B$30</calculatedColumnFormula>
+      <calculatedColumnFormula>B2+$B$16+$B$23+$B$30+8.5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -953,7 +964,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,13 +1171,13 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
@@ -1193,74 +1204,74 @@
         <v>0</v>
       </c>
       <c r="B36" s="7">
-        <f>B2+$B$12+$B$20+$B$27</f>
-        <v>36.5</v>
+        <f t="shared" ref="B36:B42" si="0">B2+$B$12+$B$20+$B$27+8.5</f>
+        <v>45</v>
       </c>
       <c r="C36" s="8">
-        <f>B2+$B$13+$B$21+$B$28</f>
-        <v>33.200000000000003</v>
+        <f t="shared" ref="C36:C42" si="1">B2+$B$13+$B$21+$B$28+8.5</f>
+        <v>41.7</v>
       </c>
       <c r="D36" s="8">
-        <f>B2+$B$14+$B$22+$B$29</f>
-        <v>43.2</v>
+        <f t="shared" ref="D36:D42" si="2">B2+$B$14+$B$22+$B$29+8.5</f>
+        <v>51.7</v>
       </c>
       <c r="E36" s="8">
-        <f>B2+$B$15+$B$22+$B$29</f>
-        <v>39.200000000000003</v>
+        <f t="shared" ref="E36:E42" si="3">B2+$B$15+$B$22+$B$29+8.5</f>
+        <v>47.7</v>
       </c>
       <c r="F36" s="9">
-        <f>B2+$B$16+$B$23+$B$30</f>
-        <v>42.95</v>
+        <f t="shared" ref="F36:F42" si="4">B2+$B$16+$B$23+$B$30+8.5</f>
+        <v>51.45</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B37" s="10">
-        <f t="shared" ref="B37:B42" si="0">B3+$B$12+$B$20+$B$27</f>
-        <v>22.5</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" ref="C37:C42" si="1">B3+$B$13+$B$21+$B$28</f>
-        <v>19.2</v>
+        <f t="shared" si="1"/>
+        <v>27.7</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" ref="D37:D42" si="2">B3+$B$14+$B$22+$B$29</f>
-        <v>29.2</v>
+        <f t="shared" si="2"/>
+        <v>37.700000000000003</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" ref="E37:E42" si="3">B3+$B$15+$B$22+$B$29</f>
-        <v>25.2</v>
+        <f t="shared" si="3"/>
+        <v>33.700000000000003</v>
       </c>
       <c r="F37" s="11">
-        <f t="shared" ref="F37:F42" si="4">B3+$B$16+$B$23+$B$30</f>
-        <v>28.95</v>
+        <f t="shared" si="4"/>
+        <v>37.450000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B38" s="10">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>30</v>
       </c>
       <c r="C38" s="6">
         <f t="shared" si="1"/>
-        <v>18.2</v>
+        <v>26.7</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="2"/>
-        <v>28.2</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="E38" s="6">
         <f t="shared" si="3"/>
-        <v>24.2</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="4"/>
-        <v>27.95</v>
+        <v>36.450000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,23 +1280,23 @@
       </c>
       <c r="B39" s="10">
         <f t="shared" si="0"/>
-        <v>22.5</v>
+        <v>31</v>
       </c>
       <c r="C39" s="6">
         <f t="shared" si="1"/>
-        <v>19.2</v>
+        <v>27.7</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="2"/>
-        <v>29.2</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="E39" s="6">
         <f t="shared" si="3"/>
-        <v>25.2</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="F39" s="11">
         <f t="shared" si="4"/>
-        <v>28.95</v>
+        <v>37.450000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1294,23 +1305,23 @@
       </c>
       <c r="B40" s="10">
         <f t="shared" si="0"/>
-        <v>22.5</v>
+        <v>31</v>
       </c>
       <c r="C40" s="6">
         <f t="shared" si="1"/>
-        <v>19.2</v>
+        <v>27.7</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="2"/>
-        <v>29.2</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" si="3"/>
-        <v>25.2</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="F40" s="11">
         <f t="shared" si="4"/>
-        <v>28.95</v>
+        <v>37.450000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1319,23 +1330,23 @@
       </c>
       <c r="B41" s="10">
         <f t="shared" si="0"/>
-        <v>22.5</v>
+        <v>31</v>
       </c>
       <c r="C41" s="6">
         <f t="shared" si="1"/>
-        <v>19.2</v>
+        <v>27.7</v>
       </c>
       <c r="D41" s="6">
         <f t="shared" si="2"/>
-        <v>29.2</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="E41" s="6">
         <f t="shared" si="3"/>
-        <v>25.2</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="F41" s="11">
         <f t="shared" si="4"/>
-        <v>28.95</v>
+        <v>37.450000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1344,51 +1355,51 @@
       </c>
       <c r="B42" s="12">
         <f t="shared" si="0"/>
-        <v>28.85</v>
+        <v>37.35</v>
       </c>
       <c r="C42" s="13">
         <f t="shared" si="1"/>
-        <v>25.549999999999997</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="D42" s="13">
         <f t="shared" si="2"/>
-        <v>35.550000000000004</v>
+        <v>44.050000000000004</v>
       </c>
       <c r="E42" s="13">
         <f t="shared" si="3"/>
-        <v>31.55</v>
-      </c>
-      <c r="F42" s="14">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="F42" s="18">
         <f t="shared" si="4"/>
-        <v>35.300000000000004</v>
+        <v>43.800000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
